--- a/数据整理/stocks/A股/科创板/688126-沪硅产业.xlsx
+++ b/数据整理/stocks/A股/科创板/688126-沪硅产业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001404</t>
+          <t>320007</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商移动互联网产业股票</t>
+          <t>诺安成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.30</t>
+          <t>327.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.9305</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001278</t>
+          <t>002560</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源清洁能源主题精选混合A</t>
+          <t>诺安和鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>37.83</t>
+          <t>82.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.4668</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>320007</t>
+          <t>588000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安成长混合</t>
+          <t>华夏上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>124.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.2731</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002360</t>
+          <t>588080</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源清洁能源主题精选混合C</t>
+          <t>易方达上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>37.83</t>
+          <t>65.18</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2292</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002560</t>
+          <t>588090</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>诺安和鑫灵活配置混合</t>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>49.84</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7045</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>588000</t>
+          <t>588050</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏上证科创板50成份ETF</t>
+          <t>工银瑞信上证科创板50成份ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>99.43</t>
+          <t>49.21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6781</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>588050</t>
+          <t>001404</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银瑞信上证科创板50成份ETF</t>
+          <t>招商移动互联网产业股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>98.68</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3855</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>588080</t>
+          <t>001278</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达上证科创板50成份ETF</t>
+          <t>前海开源清洁能源主题精选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>99.31</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>37.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>588090</t>
+          <t>002360</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华泰柏瑞上证科创板50成份ETF</t>
+          <t>前海开源清洁能源主题精选混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>99.13</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>37.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -800,15 +910,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>271.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.24</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.12</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.4583</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001404</t>
+          <t>002560</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商移动互联网产业股票</t>
+          <t>诺安和鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>86.44</t>
+          <t>58.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.5182</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -846,26 +976,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002560</t>
+          <t>001404</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安和鑫灵活配置混合</t>
+          <t>招商移动互联网产业股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.75</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2795</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688126-沪硅产业.xlsx
+++ b/数据整理/stocks/A股/科创板/688126-沪硅产业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,362 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>281.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.1725</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>147.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.4628</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.7271</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688126-沪硅产业.xlsx
+++ b/数据整理/stocks/A股/科创板/688126-沪硅产业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1370,4 +1371,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>158.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.6055</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>253.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12.1086</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.7723</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6666</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>37.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688126-沪硅产业.xlsx
+++ b/数据整理/stocks/A股/科创板/688126-沪硅产业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1693,4 +1694,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688126-沪硅产业.xlsx
+++ b/数据整理/stocks/A股/科创板/688126-沪硅产业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1702,7 +1703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1713,17 +1714,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1733,14 +1754,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>179.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.3348</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>29.22</v>
       </c>
     </row>
     <row r="3">
@@ -1749,14 +1792,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>26.38</v>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4001</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1765,14 +1830,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.26</v>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1781,13 +1868,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>35.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>35.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>28.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688126-沪硅产业.xlsx
+++ b/数据整理/stocks/A股/科创板/688126-沪硅产业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1987,7 +1988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1998,17 +1999,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2018,14 +2039,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.87</v>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>246.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.7357</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2034,14 +2077,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>171.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>13.0127</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>29.22</v>
       </c>
     </row>
     <row r="4">
@@ -2050,14 +2115,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>26.38</v>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8874</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2066,14 +2153,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6863</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.26</v>
       </c>
     </row>
     <row r="6">
@@ -2082,13 +2191,851 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4240</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3366</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519679</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3114</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2973</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007203</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河新动能混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>62.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>39.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>39.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>65.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>65.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>62.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>28.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688126-沪硅产业.xlsx
+++ b/数据整理/stocks/A股/科创板/688126-沪硅产业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2918,7 +2919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2929,17 +2930,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2949,14 +2970,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32.32</v>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>266.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.4633</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2965,14 +3008,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.87</v>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>166.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12.7732</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2981,14 +3046,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>29.22</v>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0243</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2997,14 +3084,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>26.38</v>
+          <t>014143</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2974</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3013,14 +3122,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>13.26</v>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2215</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -3029,13 +3160,259 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13.26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>28.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688126-沪硅产业.xlsx
+++ b/数据整理/stocks/A股/科创板/688126-沪硅产业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>32.02</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>32.32</v>
+        <v>32.02</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>17.87</v>
+        <v>32.32</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>29.22</v>
+        <v>17.87</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>26.38</v>
+        <v>29.22</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>13.26</v>
+        <v>26.38</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>28.76</v>
       </c>
     </row>
@@ -600,6 +617,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.3254</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>239.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.8643</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3054</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014143</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6139</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>588100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>588260</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001706</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安积极回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012847</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安积极回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -959,7 +1526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1889,7 +2456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2173,7 +2740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2495,7 +3062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2853,7 +3420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3023,7 +3590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688126-沪硅产业.xlsx
+++ b/数据整理/stocks/A股/科创板/688126-沪硅产业.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>26.8</v>
+        <v>26.18</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>32.02</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>32.32</v>
+        <v>32.02</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>17.87</v>
+        <v>32.32</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>29.22</v>
+        <v>17.87</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>26.38</v>
+        <v>29.22</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>13.26</v>
+        <v>26.38</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>28.76</v>
       </c>
     </row>
@@ -616,7 +633,993 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>327.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.9305</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.4668</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>124.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.2731</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>65.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2292</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7045</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>49.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6781</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3855</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>37.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>145.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.1460</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>248.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.4408</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2746</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014143</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6900</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>588100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>588200</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实上证科创板芯片ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>588260</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>588160</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方上证科创板新材料ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>44.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>588290</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安上证科创板芯片ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>588010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时上证科创板新材料ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001706</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安积极回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012847</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺安积极回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1166,7 +2169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1526,7 +2529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2456,7 +3459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2740,7 +3743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3062,7 +4065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3420,7 +4423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3588,402 +4591,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>320007</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>327.76</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.57</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>11.9305</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002560</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺安和鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>82.17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6.4668</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>588000</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>124.58</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.43</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>4.2731</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>588080</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>65.18</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>99.31</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.2292</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>588090</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华泰柏瑞上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>49.84</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>99.13</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.7045</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>588050</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>工银瑞信上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>49.21</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>98.68</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.6781</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001404</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商移动互联网产业股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.90</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.30</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3855</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001278</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>前海开源清洁能源主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>37.83</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0730</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002360</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>前海开源清洁能源主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>37.83</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>